--- a/Datos/Database by set/Set with text box/Xlsx sets/Zendikar Rising Tokens (TZNR).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Zendikar Rising Tokens (TZNR).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A41"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,280 +444,84 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Angel Warrior</t>
+          <t>('Angel Warrior', ['Token Creature — Angel Warrior', 'Flying', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Token Creature — Angel Warrior</t>
+          <t>('Cat', ['Token Creature — Cat', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Flying</t>
+          <t>('Cat Beast', ['Token Creature — Cat Beast', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4/4</t>
+          <t>('Construct', ['Token Artifact Creature — Construct', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cat</t>
+          <t>('Copy', ['Token', '(This token can be used to represent a token that’s a copy of a permanent.)'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Token Creature — Cat</t>
+          <t>('Drake', ['Token Creature — Drake', 'Flying', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>('Goblin Construct', ['Token Artifact Creature — Goblin Construct', 'This creature can’t block.', 'At the beginning of your upkeep, this creature deals 1 damage to you.', '0/1'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Cat Beast</t>
+          <t>('Hydra', ['Token Creature — Hydra', '*/*'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Token Creature — Cat Beast</t>
+          <t>('Illusion', ['Token Creature — Illusion', '*/*'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>('Insect', ['Token Creature — Insect', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Construct</t>
+          <t>('Kor Warrior', ['Token Creature — Kor Warrior', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Token Artifact Creature — Construct</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Copy</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Token</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>(This token can be used to represent a token that’s a copy of a permanent.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Drake</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Token Creature — Drake</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Goblin Construct</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Token Artifact Creature — Goblin Construct</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>This creature can’t block.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>At the beginning of your upkeep, this creature deals 1 damage to you.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Hydra</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Token Creature — Hydra</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>*/*</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Illusion</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Token Creature — Illusion</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>*/*</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Insect</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Token Creature — Insect</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Kor Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Token Creature — Kor Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Plant</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Token Creature — Plant</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>0/1</t>
+          <t>('Plant', ['Token Creature — Plant', '0/1'])</t>
         </is>
       </c>
     </row>
